--- a/src/test/resources/testData/UITestData/QA_TEST_DATA.xlsx
+++ b/src/test/resources/testData/UITestData/QA_TEST_DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komal.Phadtare\MyWorkSpace\AutomationFramework\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komal.Phadtare\MyWorkSpace\HybridFramework\src\test\resources\testData\UITestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297065B1-2B67-4DCC-821B-ED755ED75FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9DEBE8-1FA4-41B0-9D8F-8107C3642569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -342,10 +342,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -365,6 +361,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,29 +657,29 @@
     <col min="7" max="7" width="22.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -706,6 +704,9 @@
         <v>13</v>
       </c>
       <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F3" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -716,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E648B68-8507-4F9D-98A7-13659DF19D79}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -789,111 +790,99 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -901,38 +890,36 @@
       <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -945,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612D4189-A6F4-4582-856E-6B1D21CBA882}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testData/UITestData/QA_TEST_DATA.xlsx
+++ b/src/test/resources/testData/UITestData/QA_TEST_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komal.Phadtare\MyWorkSpace\HybridFramework\src\test\resources\testData\UITestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9DEBE8-1FA4-41B0-9D8F-8107C3642569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BEB2E9-CD8D-487B-AFDA-A8B6CAA4C34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>userName</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t xml:space="preserve">And User should not get logged in </t>
+  </si>
+  <si>
+    <t>Feature: Place Order</t>
+  </si>
+  <si>
+    <t>Scenario: Place order on SauceDemo</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E648B68-8507-4F9D-98A7-13659DF19D79}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -930,10 +936,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612D4189-A6F4-4582-856E-6B1D21CBA882}">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -984,6 +990,16 @@
         <v>52</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/UITestData/QA_TEST_DATA.xlsx
+++ b/src/test/resources/testData/UITestData/QA_TEST_DATA.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komal.Phadtare\MyWorkSpace\HybridFramework\src\test\resources\testData\UITestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BEB2E9-CD8D-487B-AFDA-A8B6CAA4C34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B9395C-3222-4EF1-9990-83C0DBEB1282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
     <sheet name="TC02" sheetId="2" r:id="rId2"/>
-    <sheet name="TestCase" sheetId="3" r:id="rId3"/>
-    <sheet name="BDD Scenario" sheetId="4" r:id="rId4"/>
+    <sheet name="TC03" sheetId="5" r:id="rId3"/>
+    <sheet name="TestCase" sheetId="3" r:id="rId4"/>
+    <sheet name="BDD Scenario" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>userName</t>
   </si>
@@ -69,9 +70,6 @@
     <t>Shinde</t>
   </si>
   <si>
-    <t>Thank you for your order!</t>
-  </si>
-  <si>
     <t>411041</t>
   </si>
   <si>
@@ -193,6 +191,12 @@
   </si>
   <si>
     <t>Scenario: Place order on SauceDemo</t>
+  </si>
+  <si>
+    <t>visual_user</t>
+  </si>
+  <si>
+    <t>Thank you for your orderat!</t>
   </si>
 </sst>
 </file>
@@ -651,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,10 +708,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -721,10 +725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E648B68-8507-4F9D-98A7-13659DF19D79}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,12 +760,64 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E700C23B-3392-41E9-8D1C-42E0B9D2AB8C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239BF4D6-B92F-425A-8411-6A1C0766A920}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -780,19 +836,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -800,96 +856,96 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -897,25 +953,25 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -923,10 +979,10 @@
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -934,11 +990,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612D4189-A6F4-4582-856E-6B1D21CBA882}">
   <dimension ref="A2:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -949,7 +1005,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -957,47 +1013,47 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
